--- a/biology/Botanique/Auxopus_kamerunensis/Auxopus_kamerunensis.xlsx
+++ b/biology/Botanique/Auxopus_kamerunensis/Auxopus_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auxopus kamerunensis est une espèce de plantes à fleurs de la famille des Orchidaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auxopus kamerunensis est une espèce de plantes à fleurs de la famille des Orchidaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Petite plante d'environ 20 cm de hauteur. Elle a une tige sans feuilles et très mince dont la largeur est de 0,04 à 0,07 cm. L'inflorescence est à fleurs multiples et forme une tête compacte. Ses pétales à fleurs sont de 3 mm de long de couleur brun pâle[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petite plante d'environ 20 cm de hauteur. Elle a une tige sans feuilles et très mince dont la largeur est de 0,04 à 0,07 cm. L'inflorescence est à fleurs multiples et forme une tête compacte. Ses pétales à fleurs sont de 3 mm de long de couleur brun pâle. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse dans les forêts tropicales dans l’ombre, en décembre et en janvier. On en trouve en Guyane, au Ghana, au Niger, au Cameroun, en Côte d'Ivoire, en République d'Afrique Centrale à des altitudes supérieures à 500 m[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse dans les forêts tropicales dans l’ombre, en décembre et en janvier. On en trouve en Guyane, au Ghana, au Niger, au Cameroun, en Côte d'Ivoire, en République d'Afrique Centrale à des altitudes supérieures à 500 m.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (17 juillet 2017)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (17 juillet 2017) :
 variété Auxopus kamerunensis var. grandiflora Summerh.</t>
         </is>
       </c>
